--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H2">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N2">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q2">
-        <v>156.5853559229321</v>
+        <v>195.0616577848938</v>
       </c>
       <c r="R2">
-        <v>156.5853559229321</v>
+        <v>1755.554920064044</v>
       </c>
       <c r="S2">
-        <v>0.02929447955078942</v>
+        <v>0.03327277618216672</v>
       </c>
       <c r="T2">
-        <v>0.02929447955078942</v>
+        <v>0.03327277618216672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H3">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N3">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q3">
-        <v>180.9067391810912</v>
+        <v>192.2561009329204</v>
       </c>
       <c r="R3">
-        <v>180.9067391810912</v>
+        <v>1730.304908396284</v>
       </c>
       <c r="S3">
-        <v>0.03384460022014321</v>
+        <v>0.03279421639618871</v>
       </c>
       <c r="T3">
-        <v>0.03384460022014321</v>
+        <v>0.03279421639618871</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H4">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N4">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q4">
-        <v>26.29976689921783</v>
+        <v>28.69629144137922</v>
       </c>
       <c r="R4">
-        <v>26.29976689921783</v>
+        <v>258.266622972413</v>
       </c>
       <c r="S4">
-        <v>0.004920242886562509</v>
+        <v>0.00489488961198186</v>
       </c>
       <c r="T4">
-        <v>0.004920242886562509</v>
+        <v>0.004894889611981861</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H5">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N5">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q5">
-        <v>2093.077996351242</v>
+        <v>2492.955543607409</v>
       </c>
       <c r="R5">
-        <v>2093.077996351242</v>
+        <v>22436.59989246668</v>
       </c>
       <c r="S5">
-        <v>0.3915795969611421</v>
+        <v>0.4252376032096085</v>
       </c>
       <c r="T5">
-        <v>0.3915795969611421</v>
+        <v>0.4252376032096085</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H6">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N6">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q6">
-        <v>2418.182166140487</v>
+        <v>2457.099555370369</v>
       </c>
       <c r="R6">
-        <v>2418.182166140487</v>
+        <v>22113.89599833332</v>
       </c>
       <c r="S6">
-        <v>0.4524011048067085</v>
+        <v>0.4191214434017335</v>
       </c>
       <c r="T6">
-        <v>0.4524011048067085</v>
+        <v>0.4191214434017335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H7">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N7">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q7">
-        <v>351.5492434235852</v>
+        <v>366.7485432152436</v>
       </c>
       <c r="R7">
-        <v>351.5492434235852</v>
+        <v>3300.736888937192</v>
       </c>
       <c r="S7">
-        <v>0.06576893517192235</v>
+        <v>0.06255838452369351</v>
       </c>
       <c r="T7">
-        <v>0.06576893517192235</v>
+        <v>0.06255838452369351</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H8">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J8">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N8">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q8">
-        <v>51.05534148861059</v>
+        <v>60.80585352174578</v>
       </c>
       <c r="R8">
-        <v>51.05534148861059</v>
+        <v>547.2526816957121</v>
       </c>
       <c r="S8">
-        <v>0.009551593432100986</v>
+        <v>0.01037200020634369</v>
       </c>
       <c r="T8">
-        <v>0.009551593432100986</v>
+        <v>0.0103720002063437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H9">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J9">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N9">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q9">
-        <v>58.98543508134633</v>
+        <v>59.93128759769245</v>
       </c>
       <c r="R9">
-        <v>58.98543508134633</v>
+        <v>539.3815883792321</v>
       </c>
       <c r="S9">
-        <v>0.01103518021592884</v>
+        <v>0.01022282052347816</v>
       </c>
       <c r="T9">
-        <v>0.01103518021592884</v>
+        <v>0.01022282052347816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H10">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J10">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N10">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q10">
-        <v>8.575154248595846</v>
+        <v>8.945389441558222</v>
       </c>
       <c r="R10">
-        <v>8.575154248595846</v>
+        <v>80.50850497402401</v>
       </c>
       <c r="S10">
-        <v>0.001604266754702103</v>
+        <v>0.001525865944805551</v>
       </c>
       <c r="T10">
-        <v>0.001604266754702103</v>
+        <v>0.001525865944805552</v>
       </c>
     </row>
   </sheetData>
